--- a/DialogData/DialogDataTable_1.xlsx
+++ b/DialogData/DialogDataTable_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unreal Engine Project\TheGustOfSummerWind - 副本\DialogData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Projects\TheGustOfSummerWind\DialogData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250ADFCC-2FC5-4192-B7F3-82FD6E6624CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A73E8-4B69-4189-9B5F-4EFF75B61B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -80,243 +80,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我揉了揉惺忪的睡眼，有些迷糊地走下车。</t>
+  </si>
+  <si>
+    <t>这时已是晚上，天空中布满繁星，挂着明月。小院中两位老人躺在藤椅上，用手中的蒲扇扇着风，感受着自然的气息。</t>
+  </si>
+  <si>
+    <t>估摸着时间，我感觉自己喜欢的动画片快播放了，便在老爸的介绍下草草打了招呼后就冲向屋内。推开卧室那扇有些陈旧的门，我才发现里面已经有了一个穿着小裙子的女孩。</t>
+  </si>
+  <si>
+    <t>我有些拘谨地招了招手，对方也学着我回礼，然后稍微挪了一下身子，为我腾出一片空位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们就这样并肩坐着。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵阵蝉鸣，是仲夏的歌声；点点萤火，是夏夜的明灯。</t>
+  </si>
+  <si>
+    <t>偶尔会有晚风从窗外吹进，带来了花与草的芬芳。</t>
+  </si>
+  <si>
+    <t>电视并没有像我想的那样有动画片播放，取而代之的只有雪花般的白点在不断闪烁。</t>
+  </si>
+  <si>
+    <t>在一阵沉默过后，她开口了：</t>
+  </si>
+  <si>
+    <t>那个……</t>
+  </si>
+  <si>
+    <t>那个……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小女孩在身上捣鼓一阵后，掏出几颗水果糖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要吃吗？</t>
+  </si>
+  <si>
+    <t>我粗乱地剥开包装，一口吞下，甜味儿瞬间在嘴里散开——是我最爱的西瓜味的糖果——接着从包里掏出一本小说，既然没有我爱看的动画片，干脆看会儿小说打发时间。</t>
+  </si>
+  <si>
+    <t>这时女孩将双手放在怀中，一双水灵的眼睛直勾勾地盯着我看。</t>
+  </si>
+  <si>
+    <t>第一次来到小城镇的我，没有在这里找到家的味道。随意地翻阅过小说后，发现我实在是看不进去，便将小说往身旁一扔，整个人倒在床上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她将手搭在我的肩上，轻声问道：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我可以看吗？</t>
+  </si>
+  <si>
+    <t>随便你吧，别折损就行。</t>
+  </si>
+  <si>
+    <t>于是她便捡起我的小说，在昏黄的灯光下翻阅起来。</t>
+  </si>
+  <si>
+    <t>安静的房间里，响起了一阵喃喃的阅读声。</t>
+  </si>
+  <si>
+    <t>快到睡觉的时间时，我忽的想起了洗澡的事。于是准备好衣服准备去洗澡，却不料没有发现热水器。</t>
+  </si>
+  <si>
+    <t>忘了和你说了，这边都是烧水洗澡。</t>
+  </si>
+  <si>
+    <t>为什么不早点说？</t>
+  </si>
+  <si>
+    <t>或许怕你接受不了？</t>
+  </si>
+  <si>
+    <t>我有些无语，倒也不是接受不了用桶接水洗，只是在大城市里住习惯后可能有些不太习惯这种洗法。</t>
+  </si>
+  <si>
+    <t>我只好去灶上烧了点水，打算勉强洗个脚。</t>
+  </si>
+  <si>
+    <t>然后我去灶屋，笨拙地添柴加火烧开了水，之后又兑了一些冷水，将洗脚水调到刚刚合适的温度。</t>
+  </si>
+  <si>
+    <t>女孩脱下小小的凉鞋，一双柔嫩的脚尖刚碰到水面，又猛地收了回来。</t>
+  </si>
+  <si>
+    <t>好烫……</t>
+  </si>
+  <si>
+    <t>烫吗？</t>
+  </si>
+  <si>
+    <t>我也将脚放了下去，一开始确实有些烫，但缓慢的将脚沉到底后不动，好像也没那么烫了。</t>
+  </si>
+  <si>
+    <t>我便让她慢慢地将脚放进去，沉到底后不要乱动。女孩乖巧的点了点头，按我说的照做。双脚沉底的过程中，我看见她那稚嫩的脸由粉白渐渐地变红了起来，终于在双脚沉底后，停止了加深</t>
+  </si>
+  <si>
+    <t>怎么样？现在还烫么？</t>
+  </si>
+  <si>
+    <t>好像没有那么烫了？</t>
+  </si>
+  <si>
+    <t>女孩又掏出小说，缓缓地翻阅起来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏黄的灯光下，两双脚在木桶中清晰可见。外面又传来电视的喧闹声，似乎像是肥皂剧。我呆呆地将头仰起，想着今天发生的事。</t>
+  </si>
+  <si>
+    <t>擦过湿漉的双脚后，我拿起手机向房间里走去。推开窗，打开风扇，一股清凉感扑面而来。</t>
+  </si>
+  <si>
+    <t>我钻入被窝中，感受着手机带给我的快乐。</t>
+  </si>
+  <si>
+    <t>老实说，我没有洁癖，但是在陌生的环境中总觉得有这样或那样的不舒服。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躺在床上，我有点怀念家里的空调。想着"既来之则安之"这样的话语，我翻了个身继续看手机。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外面突然传来衣物摩擦的声音，我侧瞟一眼，发现那个女孩不知何时已经脱去了外面的衣服，挤上了床。</t>
+  </si>
+  <si>
+    <t>或许因为我们那时都还小，家长也没说什么，就让我们睡在了一起。</t>
+  </si>
+  <si>
+    <t>对面稍微挤了过来，气温有些升高。</t>
+  </si>
+  <si>
+    <t>嗯？</t>
+  </si>
+  <si>
+    <t>岚……我的名字</t>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那本书，我还能再看吗？</t>
+  </si>
+  <si>
+    <t>可以</t>
+  </si>
+  <si>
+    <t>接着，对方便没有再说话，蝉鸣又一次占领了房间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过了会儿，对方终于鼓起勇气：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大城市，是不是有很高的房子</t>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是不是有很多车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是不是随时都可以洗热水澡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的吧，应该</t>
+  </si>
+  <si>
+    <t>嗯</t>
+  </si>
+  <si>
+    <t>嗯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我放下手机，感觉肩膀那头有点痒，可能是压到了头发的缘故。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相触的肌肤是清凉的，风扇隆隆地响着，吹散了空气中潮热和不安的气息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我明天也在</t>
+  </si>
+  <si>
+    <t>岚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentSprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conversational voice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BackgroundSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Background</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterPortraits_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterPortraits_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterPortraits_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conversational voice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameCG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我揉了揉惺忪的睡眼，有些迷糊地走下车。</t>
-  </si>
-  <si>
-    <t>这时已是晚上，天空中布满繁星，挂着明月。小院中两位老人躺在藤椅上，用手中的蒲扇扇着风，感受着自然的气息。</t>
-  </si>
-  <si>
-    <t>估摸着时间，我感觉自己喜欢的动画片快播放了，便在老爸的介绍下草草打了招呼后就冲向屋内。推开卧室那扇有些陈旧的门，我才发现里面已经有了一个穿着小裙子的女孩。</t>
-  </si>
-  <si>
-    <t>我有些拘谨地招了招手，对方也学着我回礼，然后稍微挪了一下身子，为我腾出一片空位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们就这样并肩坐着。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵阵蝉鸣，是仲夏的歌声；点点萤火，是夏夜的明灯。</t>
-  </si>
-  <si>
-    <t>偶尔会有晚风从窗外吹进，带来了花与草的芬芳。</t>
-  </si>
-  <si>
-    <t>电视并没有像我想的那样有动画片播放，取而代之的只有雪花般的白点在不断闪烁。</t>
-  </si>
-  <si>
-    <t>在一阵沉默过后，她开口了：</t>
-  </si>
-  <si>
-    <t>那个……</t>
-  </si>
-  <si>
-    <t>那个……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小女孩在身上捣鼓一阵后，掏出几颗水果糖。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你要吃吗？</t>
-  </si>
-  <si>
-    <t>我粗乱地剥开包装，一口吞下，甜味儿瞬间在嘴里散开——是我最爱的西瓜味的糖果——接着从包里掏出一本小说，既然没有我爱看的动画片，干脆看会儿小说打发时间。</t>
-  </si>
-  <si>
-    <t>这时女孩将双手放在怀中，一双水灵的眼睛直勾勾地盯着我看。</t>
-  </si>
-  <si>
-    <t>第一次来到小城镇的我，没有在这里找到家的味道。随意地翻阅过小说后，发现我实在是看不进去，便将小说往身旁一扔，整个人倒在床上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>她将手搭在我的肩上，轻声问道：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我可以看吗？</t>
-  </si>
-  <si>
-    <t>随便你吧，别折损就行。</t>
-  </si>
-  <si>
-    <t>于是她便捡起我的小说，在昏黄的灯光下翻阅起来。</t>
-  </si>
-  <si>
-    <t>安静的房间里，响起了一阵喃喃的阅读声。</t>
-  </si>
-  <si>
-    <t>快到睡觉的时间时，我忽的想起了洗澡的事。于是准备好衣服准备去洗澡，却不料没有发现热水器。</t>
-  </si>
-  <si>
-    <t>忘了和你说了，这边都是烧水洗澡。</t>
-  </si>
-  <si>
-    <t>为什么不早点说？</t>
-  </si>
-  <si>
-    <t>或许怕你接受不了？</t>
-  </si>
-  <si>
-    <t>我有些无语，倒也不是接受不了用桶接水洗，只是在大城市里住习惯后可能有些不太习惯这种洗法。</t>
-  </si>
-  <si>
-    <t>我只好去灶上烧了点水，打算勉强洗个脚。</t>
-  </si>
-  <si>
-    <t>然后我去灶屋，笨拙地添柴加火烧开了水，之后又兑了一些冷水，将洗脚水调到刚刚合适的温度。</t>
-  </si>
-  <si>
-    <t>女孩脱下小小的凉鞋，一双柔嫩的脚尖刚碰到水面，又猛地收了回来。</t>
-  </si>
-  <si>
-    <t>好烫……</t>
-  </si>
-  <si>
-    <t>烫吗？</t>
-  </si>
-  <si>
-    <t>我也将脚放了下去，一开始确实有些烫，但缓慢的将脚沉到底后不动，好像也没那么烫了。</t>
-  </si>
-  <si>
-    <t>我便让她慢慢地将脚放进去，沉到底后不要乱动。女孩乖巧的点了点头，按我说的照做。双脚沉底的过程中，我看见她那稚嫩的脸由粉白渐渐地变红了起来，终于在双脚沉底后，停止了加深</t>
-  </si>
-  <si>
-    <t>怎么样？现在还烫么？</t>
-  </si>
-  <si>
-    <t>好像没有那么烫了？</t>
-  </si>
-  <si>
-    <t>女孩又掏出小说，缓缓地翻阅起来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昏黄的灯光下，两双脚在木桶中清晰可见。外面又传来电视的喧闹声，似乎像是肥皂剧。我呆呆地将头仰起，想着今天发生的事。</t>
-  </si>
-  <si>
-    <t>擦过湿漉的双脚后，我拿起手机向房间里走去。推开窗，打开风扇，一股清凉感扑面而来。</t>
-  </si>
-  <si>
-    <t>我钻入被窝中，感受着手机带给我的快乐。</t>
-  </si>
-  <si>
-    <t>老实说，我没有洁癖，但是在陌生的环境中总觉得有这样或那样的不舒服。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躺在床上，我有点怀念家里的空调。想着"既来之则安之"这样的话语，我翻了个身继续看手机。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外面突然传来衣物摩擦的声音，我侧瞟一眼，发现那个女孩不知何时已经脱去了外面的衣服，挤上了床。</t>
-  </si>
-  <si>
-    <t>或许因为我们那时都还小，家长也没说什么，就让我们睡在了一起。</t>
-  </si>
-  <si>
-    <t>对面稍微挤了过来，气温有些升高。</t>
-  </si>
-  <si>
-    <t>嗯？</t>
-  </si>
-  <si>
-    <t>岚……我的名字</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那本书，我还能再看吗？</t>
-  </si>
-  <si>
-    <t>可以</t>
-  </si>
-  <si>
-    <t>接着，对方便没有再说话，蝉鸣又一次占领了房间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过了会儿，对方终于鼓起勇气：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大城市，是不是有很高的房子</t>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是不是有很多车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>是不是随时都可以洗热水澡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是的吧，应该</t>
-  </si>
-  <si>
-    <t>嗯</t>
-  </si>
-  <si>
-    <t>嗯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我放下手机，感觉肩膀那头有点痒，可能是压到了头发的缘故。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相触的肌肤是清凉的，风扇隆隆地响着，吹散了空气中潮热和不安的气息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我明天也在</t>
   </si>
 </sst>
 </file>
@@ -650,15 +642,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -666,28 +658,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -695,7 +681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -706,18 +692,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -725,7 +711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -733,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -741,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -749,7 +735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -760,18 +746,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -779,414 +765,414 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1194,171 +1180,171 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
